--- a/feature/test-no-narrative/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/test-no-narrative/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-06T14:32:45+00:00</t>
+    <t>2024-11-06T14:48:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/test-no-narrative/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/test-no-narrative/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-06T14:48:32+00:00</t>
+    <t>2024-11-07T09:32:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/test-no-narrative/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/test-no-narrative/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T09:32:04+00:00</t>
+    <t>2024-11-07T09:55:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/test-no-narrative/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/feature/test-no-narrative/ig/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T09:55:09+00:00</t>
+    <t>2024-11-07T13:42:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
